--- a/F_dataset/DUD-E/MP2K1/MP2K1_preprocessing/MP2K1_valid.xlsx
+++ b/F_dataset/DUD-E/MP2K1/MP2K1_preprocessing/MP2K1_valid.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9310&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9976F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A91C0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E997220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9150&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996CE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A90E0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9968F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9070&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9000&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9955B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8F90&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8F20&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9951C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8EB0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8DD0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8C80&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A92A0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E997450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8C10&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8B30&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C04991153</t>
+          <t>C01504771</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CNc1nc(Cl)nc2c1ncn2[C@@H]1OC[C@@H](O)[C@@H](O)[C@@H]1O</t>
+          <t>Brc1cc(N/C=C2\C=Nc3ccccc32)cc2c1OCCO2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CNc1nc(Cl)nc2c1ncn2[C@@H]1OC[C@@H](O)[C@@H](O)[C@@H]1O</t>
+          <t>Brc1cc(N/C=C2\C=Nc3ccccc32)cc2c1OCCO2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>315.72</v>
+        <v>357.21</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
         <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
         <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>125.55</v>
+        <v>42.85</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D3370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5D20&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C01504771</t>
+          <t>C13110957</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Brc1cc(N/C=C2\C=Nc3ccccc32)cc2c1OCCO2</t>
+          <t>[NH2+]=C(Nc1nc(=O)c2c([nH]1)CCCC2)Nc1ccccc1Sc1ccccc1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Brc1cc(N/C=C2\C=Nc3ccccc32)cc2c1OCCO2</t>
+          <t>[NH2+]=C(Nc1nc(=O)c2c([nH]1)CCCC2)Nc1ccccc1Sc1ccccc1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>357.21</v>
+        <v>392.51</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" t="n">
         <v>3</v>
       </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2</v>
-      </c>
       <c r="M17" t="n">
-        <v>42.85</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D3840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5770&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D1690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5700&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C12662718</t>
+          <t>C65748225</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C[C@]12CC/C(=N\NC(N)=S)C[C@@H]1CC[C@H]1[C@@H]2CC[C@]2(C)[C@@H](C3=CC(=O)OC3)CC[C@@]12O</t>
+          <t>CC1=C(/C=C/C(C)=C/C=C/C(C)=C\C(=O)O[C@H]2O[C@@H](C(=O)[O-])[C@@H](O)[C@@H](O)[C@@H]2O)C(C)(C)CCC1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C[C@]12CC/C(=N\NC(N)=S)C[C@@H]1CC[C@H]1[C@@H]2CC[C@]2(C)[C@@H](C3=CC(=O)OC3)CC[C@@]12O</t>
+          <t>CC1=C(/C=C/C(C)=C/C=C/C(C)=C\C(=O)O[C@H]2O[C@@H](C(=O)[O-])[C@@H](O)[C@@H](O)[C@@H]2O)C(C)(C)CCC1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>445.63</v>
+        <v>475.56</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" t="n">
         <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>96.94</v>
+        <v>136.35</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D35A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B52A0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C05044855</t>
+          <t>C12662718</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CCCCc1[nH]nc2c1[C@@H](c1c[nH]c3ccccc13)C(C#N)=C(N)O2</t>
+          <t>C[C@]12CC/C(=N\NC(N)=S)C[C@@H]1CC[C@H]1[C@@H]2CC[C@]2(C)[C@@H](C3=CC(=O)OC3)CC[C@@]12O</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CCCCc1[nH]nc2c1[C@@H](c1c[nH]c3ccccc13)C(C#N)=C(N)O2</t>
+          <t>C[C@]12CC/C(=N\NC(N)=S)C[C@@H]1CC[C@H]1[C@@H]2CC[C@]2(C)[C@@H](C3=CC(=O)OC3)CC[C@@]12O</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>333.4</v>
+        <v>445.63</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>103.51</v>
+        <v>96.94</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D02E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5C40&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D0040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B58C0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D3530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5380&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D3B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4660&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D0120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B57E0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C39586055</t>
+          <t>C34774245</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cc1cccc(-n2ccnc2SCC(=O)/[NH+]=C2\C=C3N=C([O-])N=C3C=C2Br)c1</t>
+          <t>C=CCSc1nc(N2CC[NH+](Cc3ccc(C)cc3C)CC2)c2c(-c3ccccc3)csc2n1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cc1cccc(-n2ccnc2SCC(=O)/[NH+]=C2\C=C3N=C([O-])N=C3C=C2Br)c1</t>
+          <t>C=CCSc1nc(N2CC[NH+](Cc3ccc(C)cc3C)CC2)c2c(-c3ccccc3)csc2n1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>456.33</v>
+        <v>487.72</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2148,16 +2148,16 @@
         <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>96.64</v>
+        <v>33.46</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D10E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B50E0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C34774245</t>
+          <t>C35099809</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C=CCSc1nc(N2CC[NH+](Cc3ccc(C)cc3C)CC2)c2c(-c3ccccc3)csc2n1</t>
+          <t>C[C@@H]1CCCC[NH+]1CCCN(Cc1ccc2c(c1)OCO2)S(=O)(=O)c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C=CCSc1nc(N2CC[NH+](Cc3ccc(C)cc3C)CC2)c2c(-c3ccccc3)csc2n1</t>
+          <t>C[C@@H]1CCCC[NH+]1CCCN(Cc1ccc2c(c1)OCO2)S(=O)(=O)c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>487.72</v>
+        <v>510.47</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2216,16 +2216,16 @@
         <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>33.46</v>
+        <v>60.28</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D37D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B53F0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C35099809</t>
+          <t>C08214834</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCCC[NH+]1CCCN(Cc1ccc2c(c1)OCO2)S(=O)(=O)c1ccc(Br)cc1</t>
+          <t>CC(=O)O[C@H]1C[C@@H](OC(C)=O)C(C)(C)[C@H]2C[C@@H](OC(C)=O)[C@]3(C)[C@@H](CC[C@@]4(C)[C@H](c5ccoc5)C(=O)[C@H]5O[C@@]534)[C@@]12C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCCC[NH+]1CCCN(Cc1ccc2c(c1)OCO2)S(=O)(=O)c1ccc(Br)cc1</t>
+          <t>CC(=O)O[C@H]1C[C@@H](OC(C)=O)C(C)(C)[C@H]2C[C@@H](OC(C)=O)[C@]3(C)[C@@H](CC[C@@]4(C)[C@H](c5ccoc5)C(=O)[C@H]5O[C@]543)[C@@]12C</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>510.47</v>
+        <v>570.6799999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>60.28</v>
+        <v>121.64</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D3DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5AF0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C48300035</t>
+          <t>C13681731</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NC(=O)N[C@@H](CC(=O)NCc1ccc(S(N)(=O)=O)s1)c1ccccc1</t>
+          <t>C[C@]12CC[C@@H]3c4ccc(O)cc4CC[C@H]3[C@@H]1C[C@H](Cc1ccccn1)[C@@H]2O</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NC(=O)N[C@@H](CC(=O)NCc1ccc(S(N)(=O)=O)s1)c1ccccc1</t>
+          <t>C[C@]12CC[C@@H]3c4ccc(O)cc4CC[C@H]3[C@@H]1C[C@H](Cc1ccccn1)[C@@H]2O</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>382.47</v>
+        <v>363.5</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
         <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>144.38</v>
+        <v>53.35</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D06D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B59A0&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C20713114</t>
+          <t>C48300035</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccccc1[C@H]1Nc2ccc(S(=O)(=O)N3CCc4ccccc43)cc2[C@@H]2C=CC[C@@H]12</t>
+          <t>NC(=O)N[C@@H](CC(=O)NCc1ccc(S(N)(=O)=O)s1)c1ccccc1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccccc1[C@H]1Nc2ccc(S(=O)(=O)N3CCc4ccccc43)cc2[C@@H]2C=CC[C@@H]12</t>
+          <t>NC(=O)N[C@@H](CC(=O)NCc1ccc(S(N)(=O)=O)s1)c1ccccc1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>473.55</v>
+        <v>382.47</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>92.55</v>
+        <v>144.38</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D07B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5310&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C57642401</t>
+          <t>C20713114</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CC[C@H](c1nnnn1Cc1ccc(F)cc1)N(Cc1ccc(C)cc1)Cc1cc2c(C)ccc(C)c2[nH]c1=O</t>
+          <t>O=[N+]([O-])c1ccccc1[C@H]1Nc2ccc(S(=O)(=O)N3CCc4ccccc43)cc2[C@@H]2C=CC[C@@H]12</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CC[C@H](c1nnnn1Cc1ccc(F)cc1)N(Cc1ccc(C)cc1)Cc1cc2c(C)ccc(C)c2[nH]c1=O</t>
+          <t>O=[N+]([O-])c1ccccc1[C@H]1Nc2ccc(S(=O)(=O)N3CCc4ccccc43)cc2[C@@H]2C=CC[C@@H]12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>524.64</v>
+        <v>473.55</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -2488,16 +2488,16 @@
         <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>79.7</v>
+        <v>92.55</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D0DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4890&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C23555541</t>
+          <t>C40013602</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>COc1ccc(CSc2nnc(S[C@H](C)C(=O)Nc3cc([N+](=O)[O-])ccc3Cl)s2)cc1</t>
+          <t>CCCC[NH+](CCCC)CCCN1C(=O)c2oc3cc(C)c(C)cc3c(=O)c2[C@@H]1c1ccc(SC)cc1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>COc1ccc(CSc2nnc(S[C@H](C)C(=O)Nc3cc([N+](=O)[O-])ccc3Cl)s2)cc1</t>
+          <t>CCCC[NH+](CCCC)CCCN1C(=O)c2oc3cc(C)c(C)cc3c(=O)c2[C@@H]1c1ccc(SC)cc1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>497.02</v>
+        <v>521.75</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>107.25</v>
+        <v>54.96</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D3920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4DD0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C00706474</t>
+          <t>C57642401</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CC1=C(C(=O)OC2CCCCCC2)[C@@H](c2cccc3ccccc23)NC(=O)N1</t>
+          <t>CC[C@H](c1nnnn1Cc1ccc(F)cc1)N(Cc1ccc(C)cc1)Cc1cc2c(C)ccc(C)c2[nH]c1=O</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CC1=C(C(=O)OC2CCCCCC2)[C@@H](c2cccc3ccccc23)NC(=O)N1</t>
+          <t>CC[C@H](c1nnnn1Cc1ccc(F)cc1)N(Cc1ccc(C)cc1)Cc1cc2c(C)ccc(C)c2[nH]c1=O</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>378.47</v>
+        <v>524.64</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>67.43000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D3D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5620&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL2216825</t>
+          <t>C23555541</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
+          <t>COc1ccc(CSc2nnc(S[C@H](C)C(=O)Nc3cc([N+](=O)[O-])ccc3Cl)s2)cc1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
+          <t>COc1ccc(CSc2nnc(S[C@H](C)C(=O)Nc3cc([N+](=O)[O-])ccc3Cl)s2)cc1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2679,66 +2679,40 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>457.48</v>
+        <v>497.02</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
+        <v>8</v>
+      </c>
+      <c r="J33" t="n">
         <v>9</v>
       </c>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>CHEMBL1019622</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Inhibition of MAP2K1 at 1 uM</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>107.25</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D0430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5E70&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2750,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL119385</t>
+          <t>CHEMBL1235213</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2758,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>O=c1ncn2nc(Sc3ccc(F)cc3F)ccc2c1-c1c(Cl)cccc1Cl</t>
+          <t>CCOc1ccc(Nc2c(C)c(N[C@H]3CCCNC3)nc3ccnn23)cc1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>O=c1ncn2nc(Sc3ccc(F)cc3F)ccc2c1-c1c(Cl)cccc1Cl</t>
+          <t>CCOc1ccc(Nc2c(C)c(N[C@H]3CCCNC3)nc3ccnn23)cc1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2777,25 +2751,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>436.27</v>
+        <v>366.47</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
+        <v>6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4</v>
+      </c>
+      <c r="L34" t="n">
         <v>3</v>
       </c>
-      <c r="K34" t="n">
-        <v>4</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4</v>
-      </c>
       <c r="M34" t="n">
-        <v>47.26</v>
+        <v>75.51000000000001</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2813,16 +2787,16 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>CHEMBL2027420</t>
+          <t>CHEMBL2166398</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Inhibition of Mek1 at 2 uM</t>
+          <t>Inhibition of human MEK1 at 10 uM</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -2832,7 +2806,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D3990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4C80&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2844,7 +2818,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL553</t>
+          <t>CHEMBL4460272</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2852,12 +2826,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>C#Cc1cccc(Nc2ncnc3cc(OCCOC)c(OCCOC)cc23)c1</t>
+          <t>c1cc(-c2n[nH]c3ccnc(OC4CCOCC4)c23)cc(N2CCOCC2)n1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>C#Cc1cccc(Nc2ncnc3cc(OCCOC)c(OCCOC)cc23)c1</t>
+          <t>c1cc(-c2n[nH]c3ccnc(OC4CCOCC4)c23)cc(N2CCOCC2)n1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2871,7 +2845,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>393.44</v>
+        <v>381.44</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -2880,16 +2854,16 @@
         <v>7</v>
       </c>
       <c r="J35" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
         <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>74.73</v>
+        <v>85.39</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2911,12 +2885,12 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>CHEMBL3761586</t>
+          <t>CHEMBL4331991</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Inhibition of MAP2K1 (unknown origin) at 500 nM</t>
+          <t>Inhibition of MKK1 (unknown origin) at 1 uM relative to control</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -2926,7 +2900,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D0BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5690&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2938,7 +2912,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL4460272</t>
+          <t>CHEMBL513330</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2946,12 +2920,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>c1cc(-c2n[nH]c3ccnc(OC4CCOCC4)c23)cc(N2CCOCC2)n1</t>
+          <t>Clc1ccc(CNc2nccc(-c3cnn4ncccc34)n2)cc1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>c1cc(-c2n[nH]c3ccnc(OC4CCOCC4)c23)cc(N2CCOCC2)n1</t>
+          <t>Clc1ccc(CNc2nccc(-c3cnn4ncccc34)n2)cc1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2965,25 +2939,25 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>381.44</v>
+        <v>336.79</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>85.39</v>
+        <v>68</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -3001,16 +2975,16 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>CHEMBL4331991</t>
+          <t>CHEMBL1962207</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Inhibition of MKK1 (unknown origin) at 1 uM relative to control</t>
+          <t>GSK_PKIS: MEK1 mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -3020,7 +2994,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D3BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5E00&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">

--- a/F_dataset/DUD-E/MP2K1/MP2K1_preprocessing/MP2K1_valid.xlsx
+++ b/F_dataset/DUD-E/MP2K1/MP2K1_preprocessing/MP2K1_valid.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL265786</t>
+          <t>CHEMBL103045</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,35 +556,35 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COc1ccccc1Oc1ccc(Nc2c(C#N)cnn3cc(NC(=O)OCCN4CCOCC4)c(C)c23)cc1</t>
+          <t>CCN1CCN(CCCOc2cc3ncc(C#N)c(Nc4ccc(Sc5nccn5C)c(Cl)c4)c3cc2OC)CC1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COc1ccccc1Oc1ccc(Nc2c(C#N)cnn3cc(NC(=O)OCCN4CCOCC4)c(C)c23)cc1</t>
+          <t>CCN1CCN(CCCOc2cc3ncc(C#N)c(Nc4ccc(Sc5nccn5C)c(Cl)c4)c3cc2OC)CC1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>542.6</v>
+        <v>592.17</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
@@ -593,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>122.38</v>
+        <v>91.47</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B00970&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL29714</t>
+          <t>CHEMBL450271</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Sc4ccccc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>COc1cc2c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1/C=C/CCCN1CCN(C)CC1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Sc4ccccc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>COc1cc2c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1/C=C/CCCN1CCN(C)CC1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>526.66</v>
+        <v>588.1799999999999</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>79.64</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A91C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B01150&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL103045</t>
+          <t>CHEMBL31143</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CCN1CCN(CCCOc2cc3ncc(C#N)c(Nc4ccc(Sc5nccn5C)c(Cl)c4)c3cc2OC)CC1</t>
+          <t>COc1cc2c(Nc3ccc(Cc4ccco4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CCN1CCN(CCCOc2cc3ncc(C#N)c(Nc4ccc(Sc5nccn5C)c(Cl)c4)c3cc2OC)CC1</t>
+          <t>COc1cc2c(Nc3ccc(Cc4ccco4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,16 +711,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>592.17</v>
+        <v>498.58</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
@@ -729,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>91.47</v>
+        <v>92.78</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B009E0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL450271</t>
+          <t>CHEMBL214587</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1/C=C/CCCN1CCN(C)CC1</t>
+          <t>N/C(=N\CCN1CCOCC1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1/C=C/CCCN1CCN(C)CC1</t>
+          <t>N/C(=N\CCN1CCOCC1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>588.1799999999999</v>
+        <v>508.43</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
         <v>8</v>
       </c>
-      <c r="J5" t="n">
-        <v>10</v>
-      </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>82.23999999999999</v>
+        <v>105.23</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A90E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B00900&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL288349</t>
+          <t>CHEMBL30516</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccc(C#N)cc2)c1</t>
+          <t>COc1ccc(Nc2c(C#N)cnc3cc(OCCCN4CCOCC4)c(OC)cc23)cc1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccc(C#N)cc2)c1</t>
+          <t>COc1ccc(Nc2c(C#N)cnc3cc(OCCCN4CCOCC4)c(OC)cc23)cc1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>398.49</v>
+        <v>448.52</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>119.85</v>
+        <v>88.87</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B00AC0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL318326</t>
+          <t>CHEMBL30359</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Sc4ccccn4)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>COc1cc2c(Nc3ccc(Cc4ccsc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Sc4ccccn4)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>COc1cc2c(Nc3ccc(Cc4ccsc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -911,17 +911,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>562.1</v>
+        <v>514.65</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>10</v>
@@ -933,7 +933,7 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>92.53</v>
+        <v>79.64</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B002E0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL337728</t>
+          <t>CHEMBL485237</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>COc1cc2cc3ncc(C#N)c(Nc4ccc(Oc5ccccc5)cc4)c3cc2cc1OC</t>
+          <t>Cn1ccnc1Sc1ccc(Nc2c(C#N)cnc3cc(/C=C/CN4CCOCC4)ccc23)cc1Cl</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COc1cc2cc3ncc(C#N)c(Nc4ccc(Oc5ccccc5)cc4)c3cc2cc1OC</t>
+          <t>Cn1ccnc1Sc1ccc(Nc2c(C#N)cnc3cc(/C=C/CN4CCOCC4)ccc23)cc1Cl</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>447.49</v>
+        <v>517.0599999999999</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
         <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>76.40000000000001</v>
+        <v>79</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B00BA0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL38321</t>
+          <t>CHEMBL30790</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2cccnc2)c1</t>
+          <t>COc1cc2c(Nc3ccc(Cc4ccoc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2cccnc2)c1</t>
+          <t>COc1cc2c(Nc3ccc(Cc4ccoc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1047,29 +1047,29 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>374.47</v>
+        <v>498.58</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" t="n">
         <v>5</v>
       </c>
-      <c r="K9" t="n">
-        <v>3</v>
-      </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>108.95</v>
+        <v>92.78</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B00C10&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL214901</t>
+          <t>CHEMBL281662</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/C(=N\N1CCOCC1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
+          <t>COc1cc2c(Nc3ccc(Cc4ccccn4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N/C(=N\N1CCOCC1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
+          <t>COc1cc2c(Nc3ccc(Cc4ccccn4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1115,29 +1115,29 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>480.38</v>
+        <v>509.61</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" t="n">
         <v>4</v>
       </c>
-      <c r="L10" t="n">
-        <v>3</v>
-      </c>
       <c r="M10" t="n">
-        <v>105.23</v>
+        <v>92.53</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B00C80&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL214587</t>
+          <t>CHEMBL521502</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/C(=N\CCN1CCOCC1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
+          <t>Cn1ccnc1Sc1ccc(Nc2c(C#N)cnc3cc(/C=C/CCN4CCCC4)ccc23)cc1Cl</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/C(=N\CCN1CCOCC1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
+          <t>Cn1ccnc1Sc1ccc(Nc2c(C#N)cnc3cc(/C=C/CCN4CCCC4)ccc23)cc1Cl</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1183,29 +1183,29 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>508.43</v>
+        <v>515.09</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
         <v>8</v>
       </c>
       <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
         <v>4</v>
       </c>
-      <c r="L11" t="n">
-        <v>3</v>
-      </c>
       <c r="M11" t="n">
-        <v>105.23</v>
+        <v>69.77</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B00CF0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL216832</t>
+          <t>CHEMBL287852</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N/C(=N\CCN1CCNC(=O)C1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
+          <t>COc1cc2c(Nc3ccc(Cc4cccnc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N/C(=N\CCN1CCNC(=O)C1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
+          <t>COc1cc2c(Nc3ccc(Cc4cccnc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1251,29 +1251,29 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>521.4299999999999</v>
+        <v>509.61</v>
       </c>
       <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" t="n">
         <v>4</v>
       </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3</v>
-      </c>
       <c r="M12" t="n">
-        <v>125.1</v>
+        <v>92.53</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B00D60&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL521013</t>
+          <t>CHEMBL30551</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cn1ccnc1Sc1ccc(Nc2c(C#N)cnc3cc(/C=C/CN4CCCC4)ccc23)cc1Cl</t>
+          <t>COc1cc2c(Nc3ccc(CCc4ccccc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cn1ccnc1Sc1ccc(Nc2c(C#N)cnc3cc(/C=C/CN4CCCC4)ccc23)cc1Cl</t>
+          <t>COc1cc2c(Nc3ccc(CCc4ccccc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1319,20 +1319,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>501.06</v>
+        <v>522.65</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K13" t="n">
         <v>5</v>
@@ -1341,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>69.77</v>
+        <v>79.64</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A92A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B00DD0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL30763</t>
+          <t>CHEMBL521320</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C#N)c(Nc3cccc(Oc4ccccc4)c3)c2cc1OC</t>
+          <t>CCN1CCN(C/C=C/c2ccc3c(Nc4ccc(Sc5nccn5C)c(Cl)c4)c(C#N)cnc3c2)CC1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C#N)c(Nc3cccc(Oc4ccccc4)c3)c2cc1OC</t>
+          <t>CCN1CCN(C/C=C/c2ccc3c(Nc4ccc(Sc5nccn5C)c(Cl)c4)c(C#N)cnc3c2)CC1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1387,29 +1387,29 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>397.43</v>
+        <v>544.13</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>76.40000000000001</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B00E40&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B00F20&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C01504771</t>
+          <t>C05469905</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Brc1cc(N/C=C2\C=Nc3ccccc32)cc2c1OCCO2</t>
+          <t>CCC[C@H]1CCc2c(sc(NC(=O)NC3CCCCC3)c2C(N)=O)C1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Brc1cc(N/C=C2\C=Nc3ccccc32)cc2c1OCCO2</t>
+          <t>CCC[C@H]1CCc2c(sc(NC(=O)NC3CCCCC3)c2C(N)=O)C1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>357.21</v>
+        <v>363.53</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
         <v>3</v>
       </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4</v>
-      </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>42.85</v>
+        <v>84.22</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD3B50&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C13110957</t>
+          <t>C65748225</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[NH2+]=C(Nc1nc(=O)c2c([nH]1)CCCC2)Nc1ccccc1Sc1ccccc1</t>
+          <t>CC1=C(/C=C/C(C)=C/C=C/C(C)=C\C(=O)O[C@H]2O[C@@H](C(=O)[O-])[C@@H](O)[C@@H](O)[C@@H]2O)C(C)(C)CCC1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[NH2+]=C(Nc1nc(=O)c2c([nH]1)CCCC2)Nc1ccccc1Sc1ccccc1</t>
+          <t>CC1=C(/C=C/C(C)=C/C=C/C(C)=C\C(=O)O[C@H]2O[C@@H](C(=O)[O-])[C@@H](O)[C@@H](O)[C@@H]2O)C(C)(C)CCC1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>392.51</v>
+        <v>475.56</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>95.40000000000001</v>
+        <v>136.35</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD37D0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C04795487</t>
+          <t>C12662718</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cc1c/c(=N/N2C(=[NH2+])CSC2=S)nc(N[C@@H](O)C(Cl)(Cl)Cl)[n-]1</t>
+          <t>C[C@]12CC/C(=N\NC(N)=S)C[C@@H]1CC[C@H]1[C@@H]2CC[C@]2(C)[C@@H](C3=CC(=O)OC3)CC[C@@]12O</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cc1c/c(=N/N2C(=[NH2+])CSC2=S)nc(N[C@@H](O)C(Cl)(Cl)Cl)[n-]1</t>
+          <t>C[C@]12CC/C(=N\NC(N)=S)C[C@@H]1CC[C@H]1[C@@H]2CC[C@]2(C)[C@@H](C3=CC(=O)OC3)CC[C@@]12O</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>401.73</v>
+        <v>445.63</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>100.44</v>
+        <v>96.94</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD3BC0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C65748225</t>
+          <t>C49526867</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CC1=C(/C=C/C(C)=C/C=C/C(C)=C\C(=O)O[C@H]2O[C@@H](C(=O)[O-])[C@@H](O)[C@@H](O)[C@@H]2O)C(C)(C)CCC1</t>
+          <t>C[C@@H](Nc1ccc(C(N)=S)cn1)c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CC1=C(/C=C/C(C)=C/C=C/C(C)=C\C(=O)O[C@H]2O[C@@H](C(=O)[O-])[C@@H](O)[C@@H](O)[C@@H]2O)C(C)(C)CCC1</t>
+          <t>C[C@@H](Nc1ccc(C(N)=S)cn1)c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>475.56</v>
+        <v>336.26</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>136.35</v>
+        <v>50.94</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B52A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD25E0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C12662718</t>
+          <t>C49931106</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C[C@]12CC/C(=N\NC(N)=S)C[C@@H]1CC[C@H]1[C@@H]2CC[C@]2(C)[C@@H](C3=CC(=O)OC3)CC[C@@]12O</t>
+          <t>CC(C)[NH+]1C[C@H]2CCC[C@@H](C1)C2[NH2+][C@@H]1CC[NH+](C2CC2)C1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C[C@]12CC/C(=N\NC(N)=S)C[C@@H]1CC[C@H]1[C@@H]2CC[C@]2(C)[C@@H](C3=CC(=O)OC3)CC[C@@]12O</t>
+          <t>CC(C)[NH+]1C[C@@H]2CCC[C@H](C1)C2[NH2+][C@@H]1CC[NH+](C2CC2)C1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>445.63</v>
+        <v>294.51</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>96.94</v>
+        <v>25.49</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD2C70&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C35442730</t>
+          <t>C16958654</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>COc1ccccc1C[NH2+]C[C@@H]1C=C(C)[C@H](Cc2nnc(-c3cncn3C)o2)C[C@H]1C(C)C</t>
+          <t>COc1cc(/C=C2\C[NH+](C)CC3=C2NC(=S)N[C@@H]3c2cc(OC)c(OC)c(OC)c2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>COc1ccccc1C[NH2+]C[C@@H]1C=C(C)[C@H](Cc2nnc(-c3cncn3C)o2)C[C@H]1C(C)C</t>
+          <t>COc1cc(/C=C2\C[NH+](C)CC3=C2NC(=S)N[C@@H]3c2cc(OC)c(OC)c(OC)c2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>450.61</v>
+        <v>528.65</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>82.58</v>
+        <v>83.88</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B58C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD2CE0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C16958654</t>
+          <t>C10315668</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COc1cc(/C=C2\C[NH+](C)CC3=C2NC(=S)N[C@@H]3c2cc(OC)c(OC)c(OC)c2)cc(OC)c1OC</t>
+          <t>Clc1ccc(Cn2cc(C[NH2+]CCCSc3nnnn3-c3ccccc3)c3ccccc32)c(Cl)c1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>COc1cc(/C=C2\C[NH+](C)CC3=C2NC(=S)N[C@@H]3c2cc(OC)c(OC)c(OC)c2)cc(OC)c1OC</t>
+          <t>Clc1ccc(Cn2cc(C[NH2+]CCCSc3nnnn3-c3ccccc3)c3ccccc32)c(Cl)c1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>528.65</v>
+        <v>524.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>83.88</v>
+        <v>65.14</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD2D50&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C01829142</t>
+          <t>C66089423</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CCCCN(C)c1ncnc2c1sc1[nH+]c(N3CCCCC3)c3c(c12)CCCC3</t>
+          <t>NC(=S)N1C[C@@H]2C[C@H](C1)c1cccc(=O)n1C2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CCCCN(C)c1ncnc2c1sc1[nH+]c(N3CCCCC3)c3c(c12)CCCC3</t>
+          <t>NC(=S)N1C[C@@H]2C[C@H](C1)c1cccc(=O)n1C2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>410.61</v>
+        <v>249.34</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>46.4</v>
+        <v>51.26</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD3140&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C39738097</t>
+          <t>C20720251</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>O=S(=O)([O-])c1cc(/N=N/c2cccc(/C=C/C3[NH+]=c4ccccc4=[NH+]3)c2)c(O)c2ccccc12</t>
+          <t>OC1=Nc2n[nH]cc2[C@@H](c2ccsc2)C1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>O=S(=O)([O-])c1cc(/N=N/c2cccc(/C=C/C3[NH+]=c4ccccc4=[NH+]3)c2)c(O)c2ccccc12</t>
+          <t>OC1=Nc2n[nH]cc2[C@@H](c2ccsc2)C1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>471.52</v>
+        <v>219.27</v>
       </c>
       <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
         <v>3</v>
       </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5</v>
-      </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>130.09</v>
+        <v>61.27</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B57E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD3450&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C34774245</t>
+          <t>C00407081</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C=CCSc1nc(N2CC[NH+](Cc3ccc(C)cc3C)CC2)c2c(-c3ccccc3)csc2n1</t>
+          <t>C1CCC2(CC1)OCCO2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>C=CCSc1nc(N2CC[NH+](Cc3ccc(C)cc3C)CC2)c2c(-c3ccccc3)csc2n1</t>
+          <t>C1CCC2(CC1)OCCO2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>487.72</v>
+        <v>142.2</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>33.46</v>
+        <v>18.46</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B50E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD34C0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C35099809</t>
+          <t>C27586887</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCCC[NH+]1CCCN(Cc1ccc2c(c1)OCO2)S(=O)(=O)c1ccc(Br)cc1</t>
+          <t>Cc1nc(/N=N/Nc2ccc(-c3ccc(/N=N/Nc4nc(C)c(C)s4)cc3)cc2)sc1C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCCC[NH+]1CCCN(Cc1ccc2c(c1)OCO2)S(=O)(=O)c1ccc(Br)cc1</t>
+          <t>Cc1nc(/N=N/Nc2ccc(-c3ccc(/N=N/Nc4nc(C)c(C)s4)cc3)cc2)sc1C</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>510.47</v>
+        <v>462.61</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>60.28</v>
+        <v>99.28</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B53F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD3530&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C08214834</t>
+          <t>C09836958</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CC(=O)O[C@H]1C[C@@H](OC(C)=O)C(C)(C)[C@H]2C[C@@H](OC(C)=O)[C@]3(C)[C@@H](CC[C@@]4(C)[C@H](c5ccoc5)C(=O)[C@H]5O[C@@]534)[C@@]12C</t>
+          <t>O=C(CSc1nnc(-c2ccccc2F)[nH]1)NC(=O)NC12CC3CC(CC(C3)C1)C2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CC(=O)O[C@H]1C[C@@H](OC(C)=O)C(C)(C)[C@H]2C[C@@H](OC(C)=O)[C@]3(C)[C@@H](CC[C@@]4(C)[C@H](c5ccoc5)C(=O)[C@H]5O[C@]543)[C@@]12C</t>
+          <t>O=C(CSc1nnc(-c2ccccc2F)[nH]1)NC(=O)NC12CC3CC(CC(C3)C1)C2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>570.6799999999999</v>
+        <v>429.52</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
         <v>6</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>121.64</v>
+        <v>99.77</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD3610&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C13681731</t>
+          <t>C39947080</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C[C@]12CC[C@@H]3c4ccc(O)cc4CC[C@H]3[C@@H]1C[C@H](Cc1ccccn1)[C@@H]2O</t>
+          <t>CS(=O)(=O)Nc1ccc(CC2=NO[C@H](C3=CC4=C(CC[NH3+])C=N[C@H]4C=C3)N2)cc1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>C[C@]12CC[C@@H]3c4ccc(O)cc4CC[C@H]3[C@@H]1C[C@H](Cc1ccccn1)[C@@H]2O</t>
+          <t>CS(=O)(=O)Nc1ccc(CC2=NO[C@H](C3=CC4=C(CC[NH3+])C=N[C@H]4C=C3)N2)cc1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2339,29 +2339,29 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>363.5</v>
+        <v>414.51</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>53.35</v>
+        <v>119.79</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B59A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD04A0&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C48300035</t>
+          <t>C35130596</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NC(=O)N[C@@H](CC(=O)NCc1ccc(S(N)(=O)=O)s1)c1ccccc1</t>
+          <t>Cc1ccccc1-n1nc(C(C)(C)C)cc1NC(=O)CN(CC(C)C)C(=O)C1CCC1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NC(=O)N[C@@H](CC(=O)NCc1ccc(S(N)(=O)=O)s1)c1ccccc1</t>
+          <t>Cc1ccccc1-n1nc(C(C)(C)C)cc1NC(=O)CN(CC(C)C)C(=O)C1CCC1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2407,29 +2407,29 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>382.47</v>
+        <v>424.59</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
         <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
         <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>144.38</v>
+        <v>67.23</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD1700&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C20713114</t>
+          <t>C08214834</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccccc1[C@H]1Nc2ccc(S(=O)(=O)N3CCc4ccccc43)cc2[C@@H]2C=CC[C@@H]12</t>
+          <t>CC(=O)O[C@H]1C[C@@H](OC(C)=O)C(C)(C)[C@H]2C[C@@H](OC(C)=O)[C@]3(C)[C@@H](CC[C@@]4(C)[C@H](c5ccoc5)C(=O)[C@H]5O[C@@]534)[C@@]12C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccccc1[C@H]1Nc2ccc(S(=O)(=O)N3CCc4ccccc43)cc2[C@@H]2C=CC[C@@H]12</t>
+          <t>CC(=O)O[C@H]1C[C@@H](OC(C)=O)C(C)(C)[C@H]2C[C@@H](OC(C)=O)[C@]3(C)[C@@H](CC[C@@]4(C)[C@H](c5ccoc5)C(=O)[C@H]5O[C@]543)[C@@]12C</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2475,17 +2475,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>473.55</v>
+        <v>570.6799999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
         <v>4</v>
@@ -2494,10 +2494,10 @@
         <v>6</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>92.55</v>
+        <v>121.64</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD3D10&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C40013602</t>
+          <t>C67438698</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CCCC[NH+](CCCC)CCCN1C(=O)c2oc3cc(C)c(C)cc3c(=O)c2[C@@H]1c1ccc(SC)cc1</t>
+          <t>Cc1cc(C)cc([C@@H]2NC(=[NH2+])Nc3nc4cc5c(cc4n32)OCCCO5)c1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CCCC[NH+](CCCC)CCCN1C(=O)c2oc3cc(C)c(C)cc3c(=O)c2[C@@H]1c1ccc(SC)cc1</t>
+          <t>Cc1cc(C)cc([C@@H]2NC(=[NH2+])Nc3nc4cc5c(cc4n32)OCCCO5)c1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2543,29 +2543,29 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>521.75</v>
+        <v>364.43</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>54.96</v>
+        <v>85.93000000000001</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD3A00&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C57642401</t>
+          <t>C08721617</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CC[C@H](c1nnnn1Cc1ccc(F)cc1)N(Cc1ccc(C)cc1)Cc1cc2c(C)ccc(C)c2[nH]c1=O</t>
+          <t>CCCOc1ccc(/C=N/NC(=O)c2ccc([C@H]3SCC(=O)N3Cc3ccccc3)cc2)cc1OCC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CC[C@H](c1nnnn1Cc1ccc(F)cc1)N(Cc1ccc(C)cc1)Cc1cc2c(C)ccc(C)c2[nH]c1=O</t>
+          <t>CCCOc1ccc(/C=N/NC(=O)c2ccc([C@H]3SCC(=O)N3Cc3ccccc3)cc2)cc1OCC</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2611,11 +2611,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>524.64</v>
+        <v>517.65</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -2624,16 +2624,16 @@
         <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>79.7</v>
+        <v>80.23</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD1A10&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C23555541</t>
+          <t>C39998951</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>COc1ccc(CSc2nnc(S[C@H](C)C(=O)Nc3cc([N+](=O)[O-])ccc3Cl)s2)cc1</t>
+          <t>COCCCNC(=O)/C(C#N)=C/c1c(Oc2cc(C)cc(C)c2)nc2ccc(C)cn2c1=O</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>COc1ccc(CSc2nnc(S[C@H](C)C(=O)Nc3cc([N+](=O)[O-])ccc3Cl)s2)cc1</t>
+          <t>COCCCNC(=O)/C(C#N)=C/c1c(Oc2cc(C)cc(C)c2)nc2ccc(C)cn2c1=O</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2679,20 +2679,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>497.02</v>
+        <v>446.51</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" t="n">
         <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>9</v>
       </c>
       <c r="K33" t="n">
         <v>3</v>
@@ -2701,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>107.25</v>
+        <v>105.72</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD3AE0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL1235213</t>
+          <t>C13681731</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CCOc1ccc(Nc2c(C)c(N[C@H]3CCCNC3)nc3ccnn23)cc1</t>
+          <t>C[C@]12CC[C@@H]3c4ccc(O)cc4CC[C@H]3[C@@H]1C[C@H](Cc1ccccn1)[C@@H]2O</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CCOc1ccc(Nc2c(C)c(N[C@H]3CCCNC3)nc3ccnn23)cc1</t>
+          <t>C[C@]12CC[C@@H]3c4ccc(O)cc4CC[C@H]3[C@@H]1C[C@H](Cc1ccccn1)[C@@H]2O</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2747,66 +2747,40 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>366.47</v>
+        <v>363.5</v>
       </c>
       <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
         <v>3</v>
       </c>
-      <c r="I34" t="n">
-        <v>6</v>
-      </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>75.51000000000001</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>19</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>CHEMBL2166398</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Inhibition of human MEK1 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>53.35</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD1310&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2818,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL4460272</t>
+          <t>C00397831</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2826,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>c1cc(-c2n[nH]c3ccnc(OC4CCOCC4)c23)cc(N2CCOCC2)n1</t>
+          <t>C1CC[C@@H]2OCOC[C@H]2C1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>c1cc(-c2n[nH]c3ccnc(OC4CCOCC4)c23)cc(N2CCOCC2)n1</t>
+          <t>C1CC[C@@H]2COCO[C@H]2C1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2841,66 +2815,40 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>381.44</v>
+        <v>142.2</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>85.39</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>7</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>CHEMBL4331991</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Inhibition of MKK1 (unknown origin) at 1 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>18.46</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD03C0&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2912,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL513330</t>
+          <t>C57642401</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2920,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Clc1ccc(CNc2nccc(-c3cnn4ncccc34)n2)cc1</t>
+          <t>CC[C@H](c1nnnn1Cc1ccc(F)cc1)N(Cc1ccc(C)cc1)Cc1cc2c(C)ccc(C)c2[nH]c1=O</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Clc1ccc(CNc2nccc(-c3cnn4ncccc34)n2)cc1</t>
+          <t>CC[C@H](c1nnnn1Cc1ccc(F)cc1)N(Cc1ccc(C)cc1)Cc1cc2c(C)ccc(C)c2[nH]c1=O</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2935,11 +2883,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>336.79</v>
+        <v>524.64</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -2948,53 +2896,27 @@
         <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>68</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>CHEMBL1962207</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>79.7</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD07B0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
